--- a/data_selection/result/地区生产总值-江门-逻辑表-解释变量V3-先行指标V3.xlsx
+++ b/data_selection/result/地区生产总值-江门-逻辑表-解释变量V3-先行指标V3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2016</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,10 +496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2016</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,13 +506,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工业销售产值</t>
+          <t>家具产品产量</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -525,10 +521,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -537,13 +531,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>营业收入</t>
+          <t>合同利用外资</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -552,10 +546,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -564,13 +556,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>出口交货值</t>
+          <t>营业收入</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -579,10 +571,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -591,13 +581,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>全社会用电量</t>
+          <t>江门:成交土地数量:当周值:月:累计值:同比</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -606,10 +596,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -618,13 +606,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>消费品价格指数</t>
+          <t>原电池及原电池组（非扣式）产品产量</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -633,10 +621,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2016</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -645,13 +631,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>家具产品产量</t>
+          <t>工业投资</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -660,10 +646,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -672,13 +656,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>合同利用外资</t>
+          <t>工业销售产值</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -687,10 +671,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2016</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -699,13 +681,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>营业收入</t>
+          <t>出口交货值</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -714,10 +696,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2016</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -726,13 +706,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江门:成交土地数量:当周值:月:累计值:同比</t>
+          <t>全社会用电量</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -741,10 +721,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2016</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,42 +731,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>原电池及原电池组（非扣式）产品产量</t>
+          <t>消费品价格指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>X值</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工业投资</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>M</t>
         </is>
